--- a/data/cleaned_data/2017_TX.xlsx
+++ b/data/cleaned_data/2017_TX.xlsx
@@ -2172,7 +2172,7 @@
         <v>262</v>
       </c>
       <c r="D2">
-        <v>294</v>
+        <v>476</v>
       </c>
       <c r="E2" t="s">
         <v>314</v>
@@ -2198,7 +2198,7 @@
         <v>263</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
         <v>315</v>
@@ -2224,7 +2224,7 @@
         <v>263</v>
       </c>
       <c r="D4">
-        <v>429</v>
+        <v>749</v>
       </c>
       <c r="E4" t="s">
         <v>316</v>
@@ -2250,7 +2250,7 @@
         <v>264</v>
       </c>
       <c r="D5">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
         <v>317</v>
@@ -2276,7 +2276,7 @@
         <v>265</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
         <v>318</v>
@@ -2302,7 +2302,7 @@
         <v>266</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>319</v>
@@ -2328,7 +2328,7 @@
         <v>267</v>
       </c>
       <c r="D8">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
         <v>320</v>
@@ -2354,7 +2354,7 @@
         <v>268</v>
       </c>
       <c r="D9">
-        <v>159</v>
+        <v>218</v>
       </c>
       <c r="E9" t="s">
         <v>321</v>
@@ -2380,7 +2380,7 @@
         <v>266</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
         <v>322</v>
@@ -2400,7 +2400,7 @@
         <v>269</v>
       </c>
       <c r="D11">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
         <v>323</v>
@@ -2426,7 +2426,7 @@
         <v>270</v>
       </c>
       <c r="D12">
-        <v>490</v>
+        <v>748</v>
       </c>
       <c r="E12" t="s">
         <v>324</v>
@@ -2452,7 +2452,7 @@
         <v>266</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
         <v>325</v>
@@ -2472,7 +2472,7 @@
         <v>264</v>
       </c>
       <c r="D14">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="E14" t="s">
         <v>326</v>
@@ -2498,7 +2498,7 @@
         <v>271</v>
       </c>
       <c r="D15">
-        <v>1599</v>
+        <v>2685</v>
       </c>
       <c r="E15" t="s">
         <v>327</v>
@@ -2524,7 +2524,7 @@
         <v>272</v>
       </c>
       <c r="D16">
-        <v>18355</v>
+        <v>24609</v>
       </c>
       <c r="E16" t="s">
         <v>328</v>
@@ -2550,7 +2550,7 @@
         <v>268</v>
       </c>
       <c r="D17">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
         <v>329</v>
@@ -2570,7 +2570,7 @@
         <v>273</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
         <v>298</v>
@@ -2590,7 +2590,7 @@
         <v>274</v>
       </c>
       <c r="D19">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
         <v>330</v>
@@ -2610,7 +2610,7 @@
         <v>275</v>
       </c>
       <c r="D20">
-        <v>742</v>
+        <v>1194</v>
       </c>
       <c r="E20" t="s">
         <v>331</v>
@@ -2636,7 +2636,7 @@
         <v>276</v>
       </c>
       <c r="D21">
-        <v>1313</v>
+        <v>2059</v>
       </c>
       <c r="E21" t="s">
         <v>332</v>
@@ -2662,7 +2662,7 @@
         <v>277</v>
       </c>
       <c r="D22">
-        <v>980</v>
+        <v>1896</v>
       </c>
       <c r="E22" t="s">
         <v>333</v>
@@ -2688,7 +2688,7 @@
         <v>273</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E23" t="s">
         <v>334</v>
@@ -2708,7 +2708,7 @@
         <v>273</v>
       </c>
       <c r="D24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>263</v>
@@ -2728,7 +2728,7 @@
         <v>266</v>
       </c>
       <c r="D25">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
         <v>335</v>
@@ -2748,7 +2748,7 @@
         <v>268</v>
       </c>
       <c r="D26">
-        <v>225</v>
+        <v>326</v>
       </c>
       <c r="E26" t="s">
         <v>336</v>
@@ -2774,7 +2774,7 @@
         <v>274</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
         <v>337</v>
@@ -2800,7 +2800,7 @@
         <v>263</v>
       </c>
       <c r="D28">
-        <v>171</v>
+        <v>337</v>
       </c>
       <c r="E28" t="s">
         <v>338</v>
@@ -2820,7 +2820,7 @@
         <v>278</v>
       </c>
       <c r="D29">
-        <v>254</v>
+        <v>348</v>
       </c>
       <c r="E29" t="s">
         <v>339</v>
@@ -2846,7 +2846,7 @@
         <v>266</v>
       </c>
       <c r="D30">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
         <v>340</v>
@@ -2872,7 +2872,7 @@
         <v>262</v>
       </c>
       <c r="D31">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
         <v>341</v>
@@ -2898,7 +2898,7 @@
         <v>279</v>
       </c>
       <c r="D32">
-        <v>2678</v>
+        <v>3344</v>
       </c>
       <c r="E32" t="s">
         <v>342</v>
@@ -2924,7 +2924,7 @@
         <v>268</v>
       </c>
       <c r="D33">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
         <v>343</v>
@@ -2950,7 +2950,7 @@
         <v>268</v>
       </c>
       <c r="D34">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
         <v>344</v>
@@ -2976,7 +2976,7 @@
         <v>262</v>
       </c>
       <c r="D35">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="E35" t="s">
         <v>345</v>
@@ -2996,7 +2996,7 @@
         <v>266</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
         <v>346</v>
@@ -3016,7 +3016,7 @@
         <v>269</v>
       </c>
       <c r="D37">
-        <v>242</v>
+        <v>438</v>
       </c>
       <c r="E37" t="s">
         <v>347</v>
@@ -3042,7 +3042,7 @@
         <v>262</v>
       </c>
       <c r="D38">
-        <v>188</v>
+        <v>312</v>
       </c>
       <c r="E38" t="s">
         <v>348</v>
@@ -3068,7 +3068,7 @@
         <v>268</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
         <v>349</v>
@@ -3088,7 +3088,7 @@
         <v>280</v>
       </c>
       <c r="D40">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="E40" t="s">
         <v>350</v>
@@ -3114,7 +3114,7 @@
         <v>273</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
         <v>294</v>
@@ -3134,7 +3134,7 @@
         <v>266</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
         <v>351</v>
@@ -3154,7 +3154,7 @@
         <v>266</v>
       </c>
       <c r="D43">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
         <v>352</v>
@@ -3174,7 +3174,7 @@
         <v>281</v>
       </c>
       <c r="D44">
-        <v>4201</v>
+        <v>6643</v>
       </c>
       <c r="E44" t="s">
         <v>353</v>
@@ -3200,7 +3200,7 @@
         <v>273</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45" t="s">
         <v>267</v>
@@ -3220,7 +3220,7 @@
         <v>262</v>
       </c>
       <c r="D46">
-        <v>127</v>
+        <v>219</v>
       </c>
       <c r="E46" t="s">
         <v>354</v>
@@ -3240,7 +3240,7 @@
         <v>263</v>
       </c>
       <c r="D47">
-        <v>612</v>
+        <v>1055</v>
       </c>
       <c r="E47" t="s">
         <v>355</v>
@@ -3266,7 +3266,7 @@
         <v>269</v>
       </c>
       <c r="D48">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E48" t="s">
         <v>309</v>
@@ -3286,7 +3286,7 @@
         <v>264</v>
       </c>
       <c r="D49">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E49" t="s">
         <v>281</v>
@@ -3306,7 +3306,7 @@
         <v>262</v>
       </c>
       <c r="D50">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="E50" t="s">
         <v>356</v>
@@ -3332,7 +3332,7 @@
         <v>267</v>
       </c>
       <c r="D51">
-        <v>210</v>
+        <v>453</v>
       </c>
       <c r="E51" t="s">
         <v>357</v>
@@ -3378,7 +3378,7 @@
         <v>266</v>
       </c>
       <c r="D53">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
         <v>358</v>
@@ -3398,7 +3398,7 @@
         <v>269</v>
       </c>
       <c r="D54">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E54" t="s">
         <v>359</v>
@@ -3418,7 +3418,7 @@
         <v>266</v>
       </c>
       <c r="D55">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E55" t="s">
         <v>360</v>
@@ -3444,7 +3444,7 @@
         <v>268</v>
       </c>
       <c r="D56">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E56" t="s">
         <v>361</v>
@@ -3464,7 +3464,7 @@
         <v>268</v>
       </c>
       <c r="D57">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="E57" t="s">
         <v>362</v>
@@ -3484,7 +3484,7 @@
         <v>282</v>
       </c>
       <c r="D58">
-        <v>21164</v>
+        <v>29807</v>
       </c>
       <c r="E58" t="s">
         <v>363</v>
@@ -3510,7 +3510,7 @@
         <v>265</v>
       </c>
       <c r="D59">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
         <v>272</v>
@@ -3536,7 +3536,7 @@
         <v>268</v>
       </c>
       <c r="D60">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="E60" t="s">
         <v>364</v>
@@ -3562,7 +3562,7 @@
         <v>273</v>
       </c>
       <c r="D61">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
         <v>365</v>
@@ -3582,7 +3582,7 @@
         <v>283</v>
       </c>
       <c r="D62">
-        <v>3239</v>
+        <v>4948</v>
       </c>
       <c r="E62" t="s">
         <v>366</v>
@@ -3608,7 +3608,7 @@
         <v>274</v>
       </c>
       <c r="D63">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
         <v>367</v>
@@ -3628,7 +3628,7 @@
         <v>264</v>
       </c>
       <c r="D64">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E64" t="s">
         <v>351</v>
@@ -3648,7 +3648,7 @@
         <v>268</v>
       </c>
       <c r="D65">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="E65" t="s">
         <v>368</v>
@@ -3668,7 +3668,7 @@
         <v>265</v>
       </c>
       <c r="D66">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E66" t="s">
         <v>325</v>
@@ -3688,7 +3688,7 @@
         <v>280</v>
       </c>
       <c r="D67">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E67" t="s">
         <v>322</v>
@@ -3714,7 +3714,7 @@
         <v>280</v>
       </c>
       <c r="D68">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="E68" t="s">
         <v>369</v>
@@ -3734,7 +3734,7 @@
         <v>284</v>
       </c>
       <c r="D69">
-        <v>826</v>
+        <v>1504</v>
       </c>
       <c r="E69" t="s">
         <v>370</v>
@@ -3760,7 +3760,7 @@
         <v>266</v>
       </c>
       <c r="D70">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E70" t="s">
         <v>304</v>
@@ -3780,7 +3780,7 @@
         <v>285</v>
       </c>
       <c r="D71">
-        <v>850</v>
+        <v>1387</v>
       </c>
       <c r="E71" t="s">
         <v>371</v>
@@ -3806,7 +3806,7 @@
         <v>286</v>
       </c>
       <c r="D72">
-        <v>4830</v>
+        <v>7162</v>
       </c>
       <c r="E72" t="s">
         <v>372</v>
@@ -3832,7 +3832,7 @@
         <v>262</v>
       </c>
       <c r="D73">
-        <v>226</v>
+        <v>388</v>
       </c>
       <c r="E73" t="s">
         <v>373</v>
@@ -3858,7 +3858,7 @@
         <v>268</v>
       </c>
       <c r="D74">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="E74" t="s">
         <v>374</v>
@@ -3884,7 +3884,7 @@
         <v>278</v>
       </c>
       <c r="D75">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="E75" t="s">
         <v>375</v>
@@ -3910,7 +3910,7 @@
         <v>287</v>
       </c>
       <c r="D76">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="E76" t="s">
         <v>376</v>
@@ -3930,7 +3930,7 @@
         <v>265</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E77" t="s">
         <v>377</v>
@@ -3950,7 +3950,7 @@
         <v>265</v>
       </c>
       <c r="D78">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E78" t="s">
         <v>286</v>
@@ -3970,7 +3970,7 @@
         <v>266</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E79" t="s">
         <v>263</v>
@@ -3990,7 +3990,7 @@
         <v>279</v>
       </c>
       <c r="D80">
-        <v>2366</v>
+        <v>3534</v>
       </c>
       <c r="E80" t="s">
         <v>378</v>
@@ -4016,7 +4016,7 @@
         <v>273</v>
       </c>
       <c r="D81">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E81" t="s">
         <v>379</v>
@@ -4036,7 +4036,7 @@
         <v>288</v>
       </c>
       <c r="D82">
-        <v>192</v>
+        <v>293</v>
       </c>
       <c r="E82" t="s">
         <v>380</v>
@@ -4056,7 +4056,7 @@
         <v>268</v>
       </c>
       <c r="D83">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E83" t="s">
         <v>381</v>
@@ -4082,7 +4082,7 @@
         <v>268</v>
       </c>
       <c r="D84">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="E84" t="s">
         <v>382</v>
@@ -4102,7 +4102,7 @@
         <v>289</v>
       </c>
       <c r="D85">
-        <v>1741</v>
+        <v>2532</v>
       </c>
       <c r="E85" t="s">
         <v>383</v>
@@ -4128,7 +4128,7 @@
         <v>265</v>
       </c>
       <c r="D86">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="E86" t="s">
         <v>384</v>
@@ -4148,7 +4148,7 @@
         <v>290</v>
       </c>
       <c r="D87">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="E87" t="s">
         <v>385</v>
@@ -4174,7 +4174,7 @@
         <v>268</v>
       </c>
       <c r="D88">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E88" t="s">
         <v>386</v>
@@ -4194,7 +4194,7 @@
         <v>266</v>
       </c>
       <c r="D89">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E89" t="s">
         <v>349</v>
@@ -4220,7 +4220,7 @@
         <v>291</v>
       </c>
       <c r="D90">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="E90" t="s">
         <v>387</v>
@@ -4240,7 +4240,7 @@
         <v>280</v>
       </c>
       <c r="D91">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="E91" t="s">
         <v>388</v>
@@ -4266,7 +4266,7 @@
         <v>292</v>
       </c>
       <c r="D92">
-        <v>612</v>
+        <v>990</v>
       </c>
       <c r="E92" t="s">
         <v>389</v>
@@ -4292,7 +4292,7 @@
         <v>285</v>
       </c>
       <c r="D93">
-        <v>1224</v>
+        <v>1707</v>
       </c>
       <c r="E93" t="s">
         <v>390</v>
@@ -4318,7 +4318,7 @@
         <v>293</v>
       </c>
       <c r="D94">
-        <v>168</v>
+        <v>323</v>
       </c>
       <c r="E94" t="s">
         <v>391</v>
@@ -4338,7 +4338,7 @@
         <v>294</v>
       </c>
       <c r="D95">
-        <v>620</v>
+        <v>992</v>
       </c>
       <c r="E95" t="s">
         <v>392</v>
@@ -4364,7 +4364,7 @@
         <v>264</v>
       </c>
       <c r="D96">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="E96" t="s">
         <v>393</v>
@@ -4390,7 +4390,7 @@
         <v>266</v>
       </c>
       <c r="D97">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E97" t="s">
         <v>394</v>
@@ -4410,7 +4410,7 @@
         <v>268</v>
       </c>
       <c r="D98">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E98" t="s">
         <v>395</v>
@@ -4430,7 +4430,7 @@
         <v>265</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E99" t="s">
         <v>294</v>
@@ -4450,7 +4450,7 @@
         <v>265</v>
       </c>
       <c r="D100">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E100" t="s">
         <v>396</v>
@@ -4470,7 +4470,7 @@
         <v>291</v>
       </c>
       <c r="D101">
-        <v>265</v>
+        <v>426</v>
       </c>
       <c r="E101" t="s">
         <v>397</v>
@@ -4496,7 +4496,7 @@
         <v>295</v>
       </c>
       <c r="D102">
-        <v>32853</v>
+        <v>44809</v>
       </c>
       <c r="E102" t="s">
         <v>398</v>
@@ -4522,7 +4522,7 @@
         <v>287</v>
       </c>
       <c r="D103">
-        <v>421</v>
+        <v>628</v>
       </c>
       <c r="E103" t="s">
         <v>399</v>
@@ -4548,7 +4548,7 @@
         <v>274</v>
       </c>
       <c r="D104">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E104" t="s">
         <v>400</v>
@@ -4568,7 +4568,7 @@
         <v>264</v>
       </c>
       <c r="D105">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E105" t="s">
         <v>401</v>
@@ -4588,7 +4588,7 @@
         <v>277</v>
       </c>
       <c r="D106">
-        <v>887</v>
+        <v>1439</v>
       </c>
       <c r="E106" t="s">
         <v>402</v>
@@ -4614,7 +4614,7 @@
         <v>273</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E107" t="s">
         <v>262</v>
@@ -4634,7 +4634,7 @@
         <v>263</v>
       </c>
       <c r="D108">
-        <v>322</v>
+        <v>498</v>
       </c>
       <c r="E108" t="s">
         <v>403</v>
@@ -4660,7 +4660,7 @@
         <v>296</v>
       </c>
       <c r="D109">
-        <v>7876</v>
+        <v>9987</v>
       </c>
       <c r="E109" t="s">
         <v>404</v>
@@ -4686,7 +4686,7 @@
         <v>262</v>
       </c>
       <c r="D110">
-        <v>169</v>
+        <v>285</v>
       </c>
       <c r="E110" t="s">
         <v>405</v>
@@ -4706,7 +4706,7 @@
         <v>264</v>
       </c>
       <c r="D111">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="E111" t="s">
         <v>406</v>
@@ -4732,7 +4732,7 @@
         <v>293</v>
       </c>
       <c r="D112">
-        <v>278</v>
+        <v>468</v>
       </c>
       <c r="E112" t="s">
         <v>407</v>
@@ -4758,7 +4758,7 @@
         <v>290</v>
       </c>
       <c r="D113">
-        <v>130</v>
+        <v>270</v>
       </c>
       <c r="E113" t="s">
         <v>408</v>
@@ -4784,7 +4784,7 @@
         <v>262</v>
       </c>
       <c r="D114">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="E114" t="s">
         <v>409</v>
@@ -4804,7 +4804,7 @@
         <v>267</v>
       </c>
       <c r="D115">
-        <v>142</v>
+        <v>252</v>
       </c>
       <c r="E115" t="s">
         <v>410</v>
@@ -4830,7 +4830,7 @@
         <v>278</v>
       </c>
       <c r="D116">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="E116" t="s">
         <v>411</v>
@@ -4856,7 +4856,7 @@
         <v>297</v>
       </c>
       <c r="D117">
-        <v>575</v>
+        <v>855</v>
       </c>
       <c r="E117" t="s">
         <v>412</v>
@@ -4882,7 +4882,7 @@
         <v>273</v>
       </c>
       <c r="D118">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E118" t="s">
         <v>413</v>
@@ -4908,7 +4908,7 @@
         <v>273</v>
       </c>
       <c r="D119">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E119" t="s">
         <v>414</v>
@@ -4934,7 +4934,7 @@
         <v>266</v>
       </c>
       <c r="D120">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E120" t="s">
         <v>415</v>
@@ -4954,7 +4954,7 @@
         <v>268</v>
       </c>
       <c r="D121">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="E121" t="s">
         <v>416</v>
@@ -4974,7 +4974,7 @@
         <v>288</v>
       </c>
       <c r="D122">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="E122" t="s">
         <v>417</v>
@@ -4994,7 +4994,7 @@
         <v>265</v>
       </c>
       <c r="D123">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E123" t="s">
         <v>418</v>
@@ -5014,7 +5014,7 @@
         <v>298</v>
       </c>
       <c r="D124">
-        <v>2365</v>
+        <v>3477</v>
       </c>
       <c r="E124" t="s">
         <v>419</v>
@@ -5040,7 +5040,7 @@
         <v>273</v>
       </c>
       <c r="D125">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E125" t="s">
         <v>276</v>
@@ -5060,7 +5060,7 @@
         <v>288</v>
       </c>
       <c r="D126">
-        <v>280</v>
+        <v>412</v>
       </c>
       <c r="E126" t="s">
         <v>420</v>
@@ -5086,7 +5086,7 @@
         <v>299</v>
       </c>
       <c r="D127">
-        <v>709</v>
+        <v>1230</v>
       </c>
       <c r="E127" t="s">
         <v>421</v>
@@ -5112,7 +5112,7 @@
         <v>267</v>
       </c>
       <c r="D128">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E128" t="s">
         <v>422</v>
@@ -5138,7 +5138,7 @@
         <v>264</v>
       </c>
       <c r="D129">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="E129" t="s">
         <v>423</v>
@@ -5158,7 +5158,7 @@
         <v>300</v>
       </c>
       <c r="D130">
-        <v>578</v>
+        <v>822</v>
       </c>
       <c r="E130" t="s">
         <v>424</v>
@@ -5184,7 +5184,7 @@
         <v>264</v>
       </c>
       <c r="D131">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="E131" t="s">
         <v>425</v>
@@ -5210,7 +5210,7 @@
         <v>265</v>
       </c>
       <c r="D132">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="E132" t="s">
         <v>426</v>
@@ -5236,7 +5236,7 @@
         <v>266</v>
       </c>
       <c r="D133">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E133" t="s">
         <v>306</v>
@@ -5256,7 +5256,7 @@
         <v>268</v>
       </c>
       <c r="D134">
-        <v>251</v>
+        <v>405</v>
       </c>
       <c r="E134" t="s">
         <v>427</v>
@@ -5282,7 +5282,7 @@
         <v>269</v>
       </c>
       <c r="D135">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E135" t="s">
         <v>379</v>
@@ -5302,7 +5302,7 @@
         <v>273</v>
       </c>
       <c r="D136">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E136" t="s">
         <v>299</v>
@@ -5322,7 +5322,7 @@
         <v>273</v>
       </c>
       <c r="D137">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E137" t="s">
         <v>287</v>
@@ -5342,7 +5342,7 @@
         <v>274</v>
       </c>
       <c r="D138">
-        <v>119</v>
+        <v>196</v>
       </c>
       <c r="E138" t="s">
         <v>428</v>
@@ -5368,7 +5368,7 @@
         <v>266</v>
       </c>
       <c r="D139">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E139" t="s">
         <v>351</v>
@@ -5388,7 +5388,7 @@
         <v>280</v>
       </c>
       <c r="D140">
-        <v>280</v>
+        <v>438</v>
       </c>
       <c r="E140" t="s">
         <v>429</v>
@@ -5414,7 +5414,7 @@
         <v>265</v>
       </c>
       <c r="D141">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="E141" t="s">
         <v>362</v>
@@ -5434,7 +5434,7 @@
         <v>280</v>
       </c>
       <c r="D142">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="E142" t="s">
         <v>430</v>
@@ -5460,7 +5460,7 @@
         <v>269</v>
       </c>
       <c r="D143">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E143" t="s">
         <v>359</v>
@@ -5480,7 +5480,7 @@
         <v>269</v>
       </c>
       <c r="D144">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="E144" t="s">
         <v>431</v>
@@ -5500,7 +5500,7 @@
         <v>268</v>
       </c>
       <c r="D145">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="E145" t="s">
         <v>432</v>
@@ -5520,7 +5520,7 @@
         <v>269</v>
       </c>
       <c r="D146">
-        <v>127</v>
+        <v>234</v>
       </c>
       <c r="E146" t="s">
         <v>433</v>
@@ -5540,7 +5540,7 @@
         <v>279</v>
       </c>
       <c r="D147">
-        <v>432</v>
+        <v>599</v>
       </c>
       <c r="E147" t="s">
         <v>434</v>
@@ -5566,7 +5566,7 @@
         <v>268</v>
       </c>
       <c r="D148">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="E148" t="s">
         <v>435</v>
@@ -5586,7 +5586,7 @@
         <v>273</v>
       </c>
       <c r="D149">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
         <v>306</v>
@@ -5606,7 +5606,7 @@
         <v>262</v>
       </c>
       <c r="D150">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="E150" t="s">
         <v>436</v>
@@ -5626,7 +5626,7 @@
         <v>268</v>
       </c>
       <c r="D151">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E151" t="s">
         <v>437</v>
@@ -5646,7 +5646,7 @@
         <v>266</v>
       </c>
       <c r="D152">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E152" t="s">
         <v>365</v>
@@ -5672,7 +5672,7 @@
         <v>301</v>
       </c>
       <c r="D153">
-        <v>3174</v>
+        <v>3904</v>
       </c>
       <c r="E153" t="s">
         <v>438</v>
@@ -5698,7 +5698,7 @@
         <v>264</v>
       </c>
       <c r="D154">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E154" t="s">
         <v>334</v>
@@ -5724,7 +5724,7 @@
         <v>269</v>
       </c>
       <c r="D155">
-        <v>97</v>
+        <v>158</v>
       </c>
       <c r="E155" t="s">
         <v>323</v>
@@ -5744,7 +5744,7 @@
         <v>267</v>
       </c>
       <c r="D156">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E156" t="s">
         <v>439</v>
@@ -5764,7 +5764,7 @@
         <v>274</v>
       </c>
       <c r="D157">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="E157" t="s">
         <v>440</v>
@@ -5790,7 +5790,7 @@
         <v>268</v>
       </c>
       <c r="D158">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E158" t="s">
         <v>351</v>
@@ -5810,7 +5810,7 @@
         <v>262</v>
       </c>
       <c r="D159">
-        <v>280</v>
+        <v>406</v>
       </c>
       <c r="E159" t="s">
         <v>441</v>
@@ -5836,7 +5836,7 @@
         <v>267</v>
       </c>
       <c r="D160">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="E160" t="s">
         <v>442</v>
@@ -5862,7 +5862,7 @@
         <v>273</v>
       </c>
       <c r="D161">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="E161" t="s">
         <v>362</v>
@@ -5882,7 +5882,7 @@
         <v>276</v>
       </c>
       <c r="D162">
-        <v>1589</v>
+        <v>2523</v>
       </c>
       <c r="E162" t="s">
         <v>443</v>
@@ -5908,7 +5908,7 @@
         <v>273</v>
       </c>
       <c r="D163">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E163" t="s">
         <v>360</v>
@@ -5928,7 +5928,7 @@
         <v>287</v>
       </c>
       <c r="D164">
-        <v>235</v>
+        <v>338</v>
       </c>
       <c r="E164" t="s">
         <v>444</v>
@@ -5954,7 +5954,7 @@
         <v>266</v>
       </c>
       <c r="D165">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E165" t="s">
         <v>286</v>
@@ -5974,7 +5974,7 @@
         <v>302</v>
       </c>
       <c r="D166">
-        <v>1033</v>
+        <v>1714</v>
       </c>
       <c r="E166" t="s">
         <v>445</v>
@@ -6000,7 +6000,7 @@
         <v>287</v>
       </c>
       <c r="D167">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="E167" t="s">
         <v>446</v>
@@ -6020,7 +6020,7 @@
         <v>268</v>
       </c>
       <c r="D168">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E168" t="s">
         <v>447</v>
@@ -6040,7 +6040,7 @@
         <v>274</v>
       </c>
       <c r="D169">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E169" t="s">
         <v>381</v>
@@ -6060,7 +6060,7 @@
         <v>280</v>
       </c>
       <c r="D170">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="E170" t="s">
         <v>448</v>
@@ -6080,7 +6080,7 @@
         <v>303</v>
       </c>
       <c r="D171">
-        <v>2596</v>
+        <v>4049</v>
       </c>
       <c r="E171" t="s">
         <v>449</v>
@@ -6106,7 +6106,7 @@
         <v>274</v>
       </c>
       <c r="D172">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="E172" t="s">
         <v>450</v>
@@ -6132,7 +6132,7 @@
         <v>264</v>
       </c>
       <c r="D173">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="E173" t="s">
         <v>451</v>
@@ -6152,7 +6152,7 @@
         <v>273</v>
       </c>
       <c r="D174">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E174" t="s">
         <v>263</v>
@@ -6172,7 +6172,7 @@
         <v>290</v>
       </c>
       <c r="D175">
-        <v>403</v>
+        <v>574</v>
       </c>
       <c r="E175" t="s">
         <v>452</v>
@@ -6198,7 +6198,7 @@
         <v>278</v>
       </c>
       <c r="D176">
-        <v>282</v>
+        <v>401</v>
       </c>
       <c r="E176" t="s">
         <v>453</v>
@@ -6224,7 +6224,7 @@
         <v>268</v>
       </c>
       <c r="D177">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E177" t="s">
         <v>454</v>
@@ -6244,7 +6244,7 @@
         <v>263</v>
       </c>
       <c r="D178">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="E178" t="s">
         <v>455</v>
@@ -6270,7 +6270,7 @@
         <v>304</v>
       </c>
       <c r="D179">
-        <v>2741</v>
+        <v>3726</v>
       </c>
       <c r="E179" t="s">
         <v>456</v>
@@ -6296,7 +6296,7 @@
         <v>273</v>
       </c>
       <c r="D180">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E180" t="s">
         <v>344</v>
@@ -6316,7 +6316,7 @@
         <v>274</v>
       </c>
       <c r="D181">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E181" t="s">
         <v>457</v>
@@ -6342,7 +6342,7 @@
         <v>305</v>
       </c>
       <c r="D182">
-        <v>487</v>
+        <v>813</v>
       </c>
       <c r="E182" t="s">
         <v>458</v>
@@ -6368,7 +6368,7 @@
         <v>288</v>
       </c>
       <c r="D183">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="E183" t="s">
         <v>459</v>
@@ -6394,7 +6394,7 @@
         <v>280</v>
       </c>
       <c r="D184">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="E184" t="s">
         <v>460</v>
@@ -6414,7 +6414,7 @@
         <v>306</v>
       </c>
       <c r="D185">
-        <v>458</v>
+        <v>832</v>
       </c>
       <c r="E185" t="s">
         <v>461</v>
@@ -6440,7 +6440,7 @@
         <v>265</v>
       </c>
       <c r="D186">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E186" t="s">
         <v>462</v>
@@ -6460,7 +6460,7 @@
         <v>294</v>
       </c>
       <c r="D187">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="E187" t="s">
         <v>463</v>
@@ -6480,7 +6480,7 @@
         <v>275</v>
       </c>
       <c r="D188">
-        <v>221</v>
+        <v>365</v>
       </c>
       <c r="E188" t="s">
         <v>464</v>
@@ -6500,7 +6500,7 @@
         <v>307</v>
       </c>
       <c r="D189">
-        <v>900</v>
+        <v>1361</v>
       </c>
       <c r="E189" t="s">
         <v>465</v>
@@ -6526,7 +6526,7 @@
         <v>266</v>
       </c>
       <c r="D190">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E190" t="s">
         <v>365</v>
@@ -6546,7 +6546,7 @@
         <v>266</v>
       </c>
       <c r="D191">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E191" t="s">
         <v>466</v>
@@ -6566,7 +6566,7 @@
         <v>269</v>
       </c>
       <c r="D192">
-        <v>572</v>
+        <v>810</v>
       </c>
       <c r="E192" t="s">
         <v>467</v>
@@ -6592,7 +6592,7 @@
         <v>266</v>
       </c>
       <c r="D193">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E193" t="s">
         <v>468</v>
@@ -6612,7 +6612,7 @@
         <v>265</v>
       </c>
       <c r="D194">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E194" t="s">
         <v>469</v>
@@ -6632,7 +6632,7 @@
         <v>264</v>
       </c>
       <c r="D195">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E195" t="s">
         <v>470</v>
@@ -6652,7 +6652,7 @@
         <v>275</v>
       </c>
       <c r="D196">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="E196" t="s">
         <v>471</v>
@@ -6678,7 +6678,7 @@
         <v>269</v>
       </c>
       <c r="D197">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E197" t="s">
         <v>472</v>
@@ -6724,7 +6724,7 @@
         <v>264</v>
       </c>
       <c r="D199">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="E199" t="s">
         <v>406</v>
@@ -6750,7 +6750,7 @@
         <v>290</v>
       </c>
       <c r="D200">
-        <v>349</v>
+        <v>503</v>
       </c>
       <c r="E200" t="s">
         <v>473</v>
@@ -6776,7 +6776,7 @@
         <v>266</v>
       </c>
       <c r="D201">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E201" t="s">
         <v>474</v>
@@ -6796,7 +6796,7 @@
         <v>287</v>
       </c>
       <c r="D202">
-        <v>247</v>
+        <v>339</v>
       </c>
       <c r="E202" t="s">
         <v>475</v>
@@ -6822,7 +6822,7 @@
         <v>274</v>
       </c>
       <c r="D203">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="E203" t="s">
         <v>476</v>
@@ -6842,7 +6842,7 @@
         <v>262</v>
       </c>
       <c r="D204">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="E204" t="s">
         <v>477</v>
@@ -6862,7 +6862,7 @@
         <v>274</v>
       </c>
       <c r="D205">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="E205" t="s">
         <v>478</v>
@@ -6882,7 +6882,7 @@
         <v>275</v>
       </c>
       <c r="D206">
-        <v>320</v>
+        <v>537</v>
       </c>
       <c r="E206" t="s">
         <v>479</v>
@@ -6908,7 +6908,7 @@
         <v>273</v>
       </c>
       <c r="D207">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E207" t="s">
         <v>365</v>
@@ -6928,7 +6928,7 @@
         <v>273</v>
       </c>
       <c r="D208">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E208" t="s">
         <v>286</v>
@@ -6948,7 +6948,7 @@
         <v>265</v>
       </c>
       <c r="D209">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="E209" t="s">
         <v>480</v>
@@ -6974,7 +6974,7 @@
         <v>266</v>
       </c>
       <c r="D210">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E210" t="s">
         <v>286</v>
@@ -6994,7 +6994,7 @@
         <v>293</v>
       </c>
       <c r="D211">
-        <v>120</v>
+        <v>214</v>
       </c>
       <c r="E211" t="s">
         <v>481</v>
@@ -7014,7 +7014,7 @@
         <v>273</v>
       </c>
       <c r="D212">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E212" t="s">
         <v>304</v>
@@ -7034,7 +7034,7 @@
         <v>308</v>
       </c>
       <c r="D213">
-        <v>1845</v>
+        <v>2774</v>
       </c>
       <c r="E213" t="s">
         <v>482</v>
@@ -7060,7 +7060,7 @@
         <v>267</v>
       </c>
       <c r="D214">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E214" t="s">
         <v>483</v>
@@ -7080,7 +7080,7 @@
         <v>268</v>
       </c>
       <c r="D215">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="E215" t="s">
         <v>484</v>
@@ -7106,7 +7106,7 @@
         <v>266</v>
       </c>
       <c r="D216">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E216" t="s">
         <v>466</v>
@@ -7126,7 +7126,7 @@
         <v>273</v>
       </c>
       <c r="D217">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E217" t="s">
         <v>307</v>
@@ -7152,7 +7152,7 @@
         <v>266</v>
       </c>
       <c r="D218">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E218" t="s">
         <v>263</v>
@@ -7172,7 +7172,7 @@
         <v>268</v>
       </c>
       <c r="D219">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="E219" t="s">
         <v>485</v>
@@ -7192,7 +7192,7 @@
         <v>266</v>
       </c>
       <c r="D220">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E220" t="s">
         <v>486</v>
@@ -7212,7 +7212,7 @@
         <v>309</v>
       </c>
       <c r="D221">
-        <v>12880</v>
+        <v>18272</v>
       </c>
       <c r="E221" t="s">
         <v>487</v>
@@ -7238,7 +7238,7 @@
         <v>275</v>
       </c>
       <c r="D222">
-        <v>1166</v>
+        <v>1925</v>
       </c>
       <c r="E222" t="s">
         <v>488</v>
@@ -7264,7 +7264,7 @@
         <v>273</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E223" t="s">
         <v>287</v>
@@ -7284,7 +7284,7 @@
         <v>265</v>
       </c>
       <c r="D224">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E224" t="s">
         <v>470</v>
@@ -7304,7 +7304,7 @@
         <v>265</v>
       </c>
       <c r="D225">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
         <v>270</v>
@@ -7324,7 +7324,7 @@
         <v>280</v>
       </c>
       <c r="D226">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="E226" t="s">
         <v>489</v>
@@ -7350,7 +7350,7 @@
         <v>293</v>
       </c>
       <c r="D227">
-        <v>465</v>
+        <v>864</v>
       </c>
       <c r="E227" t="s">
         <v>490</v>
@@ -7376,7 +7376,7 @@
         <v>310</v>
       </c>
       <c r="D228">
-        <v>6733</v>
+        <v>11654</v>
       </c>
       <c r="E228" t="s">
         <v>491</v>
@@ -7402,7 +7402,7 @@
         <v>265</v>
       </c>
       <c r="D229">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="E229" t="s">
         <v>400</v>
@@ -7422,7 +7422,7 @@
         <v>265</v>
       </c>
       <c r="D230">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="E230" t="s">
         <v>492</v>
@@ -7442,7 +7442,7 @@
         <v>274</v>
       </c>
       <c r="D231">
-        <v>153</v>
+        <v>311</v>
       </c>
       <c r="E231" t="s">
         <v>493</v>
@@ -7468,7 +7468,7 @@
         <v>273</v>
       </c>
       <c r="D232">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E232" t="s">
         <v>284</v>
@@ -7488,7 +7488,7 @@
         <v>275</v>
       </c>
       <c r="D233">
-        <v>108</v>
+        <v>162</v>
       </c>
       <c r="E233" t="s">
         <v>494</v>
@@ -7514,7 +7514,7 @@
         <v>266</v>
       </c>
       <c r="D234">
-        <v>272</v>
+        <v>353</v>
       </c>
       <c r="E234" t="s">
         <v>495</v>
@@ -7540,7 +7540,7 @@
         <v>275</v>
       </c>
       <c r="D235">
-        <v>295</v>
+        <v>535</v>
       </c>
       <c r="E235" t="s">
         <v>496</v>
@@ -7560,7 +7560,7 @@
         <v>278</v>
       </c>
       <c r="D236">
-        <v>471</v>
+        <v>749</v>
       </c>
       <c r="E236" t="s">
         <v>497</v>
@@ -7586,7 +7586,7 @@
         <v>305</v>
       </c>
       <c r="D237">
-        <v>424</v>
+        <v>658</v>
       </c>
       <c r="E237" t="s">
         <v>498</v>
@@ -7612,7 +7612,7 @@
         <v>311</v>
       </c>
       <c r="D238">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="E238" t="s">
         <v>499</v>
@@ -7638,7 +7638,7 @@
         <v>291</v>
       </c>
       <c r="D239">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="E239" t="s">
         <v>463</v>
@@ -7658,7 +7658,7 @@
         <v>267</v>
       </c>
       <c r="D240">
-        <v>158</v>
+        <v>274</v>
       </c>
       <c r="E240" t="s">
         <v>500</v>
@@ -7684,7 +7684,7 @@
         <v>312</v>
       </c>
       <c r="D241">
-        <v>1775</v>
+        <v>2560</v>
       </c>
       <c r="E241" t="s">
         <v>501</v>
@@ -7710,7 +7710,7 @@
         <v>280</v>
       </c>
       <c r="D242">
-        <v>234</v>
+        <v>367</v>
       </c>
       <c r="E242" t="s">
         <v>502</v>
@@ -7736,7 +7736,7 @@
         <v>267</v>
       </c>
       <c r="D243">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E243" t="s">
         <v>503</v>
@@ -7756,7 +7756,7 @@
         <v>290</v>
       </c>
       <c r="D244">
-        <v>491</v>
+        <v>779</v>
       </c>
       <c r="E244" t="s">
         <v>504</v>
@@ -7782,7 +7782,7 @@
         <v>274</v>
       </c>
       <c r="D245">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="E245" t="s">
         <v>505</v>
@@ -7808,7 +7808,7 @@
         <v>274</v>
       </c>
       <c r="D246">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E246" t="s">
         <v>368</v>
@@ -7834,7 +7834,7 @@
         <v>313</v>
       </c>
       <c r="D247">
-        <v>1654</v>
+        <v>2982</v>
       </c>
       <c r="E247" t="s">
         <v>506</v>
@@ -7860,7 +7860,7 @@
         <v>264</v>
       </c>
       <c r="D248">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="E248" t="s">
         <v>507</v>
@@ -7886,7 +7886,7 @@
         <v>280</v>
       </c>
       <c r="D249">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="E249" t="s">
         <v>508</v>
@@ -7906,7 +7906,7 @@
         <v>292</v>
       </c>
       <c r="D250">
-        <v>168</v>
+        <v>311</v>
       </c>
       <c r="E250" t="s">
         <v>509</v>
@@ -7932,7 +7932,7 @@
         <v>262</v>
       </c>
       <c r="D251">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="E251" t="s">
         <v>510</v>
@@ -7952,7 +7952,7 @@
         <v>265</v>
       </c>
       <c r="D252">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E252" t="s">
         <v>400</v>
@@ -7972,7 +7972,7 @@
         <v>264</v>
       </c>
       <c r="D253">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E253" t="s">
         <v>511</v>
@@ -7992,7 +7992,7 @@
         <v>273</v>
       </c>
       <c r="D254">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E254" t="s">
         <v>512</v>
@@ -8018,7 +8018,7 @@
         <v>265</v>
       </c>
       <c r="D255">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E255" t="s">
         <v>469</v>
